--- a/Code/R/PerfSearch_BLASTCLUST25_comb.xlsx
+++ b/Code/R/PerfSearch_BLASTCLUST25_comb.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
     <sheet name="TenfoldCV_MidGrain" sheetId="9" r:id="rId2"/>
-    <sheet name="TenfoldCV_SVM" sheetId="11" r:id="rId3"/>
-    <sheet name="TenfoldCV_SVM_Micro" sheetId="12" r:id="rId4"/>
+    <sheet name="TenfoldCV_Reg" sheetId="11" r:id="rId3"/>
+    <sheet name="TenfoldCV_Micro" sheetId="12" r:id="rId4"/>
     <sheet name="jackknife" sheetId="14" r:id="rId5"/>
-    <sheet name="IndependentTest_SVM" sheetId="10" r:id="rId6"/>
-    <sheet name="Summary" sheetId="13" r:id="rId7"/>
+    <sheet name="IndependentTest" sheetId="10" r:id="rId6"/>
+    <sheet name="IndependentTest_Micro" sheetId="15" r:id="rId7"/>
+    <sheet name="Summary" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TenfoldCV_Coarse!$A$1:$I$57</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
   <si>
     <t>MCC</t>
   </si>
@@ -626,9 +627,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -712,23 +711,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69311872"/>
-        <c:axId val="69862528"/>
+        <c:axId val="77582720"/>
+        <c:axId val="77584256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69311872"/>
+        <c:axId val="77582720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69862528"/>
+        <c:crossAx val="77584256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69862528"/>
+        <c:axId val="77584256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,20 +735,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69311872"/>
+        <c:crossAx val="77582720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -759,9 +757,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -893,23 +889,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72995200"/>
-        <c:axId val="72997504"/>
+        <c:axId val="77633792"/>
+        <c:axId val="78712832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72995200"/>
+        <c:axId val="77633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72997504"/>
+        <c:crossAx val="78712832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72997504"/>
+        <c:axId val="78712832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -919,20 +915,19 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72995200"/>
+        <c:crossAx val="77633792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -954,7 +949,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TenfoldCV_SVM!$J$1</c:f>
+              <c:f>TenfoldCV_Reg!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -968,7 +963,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>TenfoldCV_SVM!$B$2:$B$61</c:f>
+              <c:f>TenfoldCV_Reg!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1157,43 +1152,225 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TenfoldCV_SVM!$J$2:$J$61</c:f>
+              <c:f>TenfoldCV_Reg!$J$2:$J$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.39948872770789101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.490917391324172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55588592305557705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58854377418294201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63800495466836504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61710831847811098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65097248343414205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.687742660060078</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63174631003717996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.644632080914192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64686835650839902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65974287820252298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68636499197475198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72102189901094604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74123484142231599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74959106777482098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75230670541126199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76738730684023504</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77982409676280595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78642793167559699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79315323929960602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82462228596628595</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82720342449490403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.83685960339978505</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.843933053841042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84503111876947301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.84750723958881702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.84290506579504598</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.838667088895097</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.83685960339978505</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84750723958881702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85075588644511801</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85977915651320003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.86761749971479896</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.85143793471191098</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.86287400503226597</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.86761749971479896</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86253211742022495</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.86312382162661305</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.87305131155637195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.86732093635224405</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.87123772556421797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.87305131155637195</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.88088255571688501</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88118037742702204</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.86913568947611497</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.81927172134175996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.832870625680877</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.83326037456124102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.83503404887857702</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.84252515145828699</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83720243598357402</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.82661122687481703</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.83326037456124102</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.82283678430846496</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.82971902990944302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.83071213116839404</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.76546338077362797</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.77251690230824999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.72771214855164301</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="73711616"/>
-        <c:axId val="73713920"/>
+        <c:axId val="78753792"/>
+        <c:axId val="78755328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73711616"/>
+        <c:axId val="78753792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73713920"/>
+        <c:crossAx val="78755328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73713920"/>
+        <c:axId val="78755328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
-          <c:min val="0.4"/>
+          <c:min val="0.75000000000000078"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73711616"/>
+        <c:crossAx val="78753792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1206,7 +1383,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1228,7 +1405,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TenfoldCV_SVM_Micro!$J$1</c:f>
+              <c:f>TenfoldCV_Micro!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1242,52 +1419,178 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>TenfoldCV_SVM_Micro!$B$2:$B$42</c:f>
+              <c:f>TenfoldCV_Micro!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>350</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TenfoldCV_SVM_Micro!$J$2:$J$42</c:f>
+              <c:f>TenfoldCV_Micro!$J$2:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.85977915651320003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85435855346370804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84895782566933198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85648025383922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85648025383922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85648025383922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86253211742022495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86189044079170496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.862204285748013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85468129677015303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86761749971479896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86369832811400005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85751526207949602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85288453256919206</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85616319150555198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86825264410288105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85404966690527995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85648025383922</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85828141960586102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84863199366344599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85143793471191098</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="86831104"/>
-        <c:axId val="86833408"/>
+        <c:axId val="80914688"/>
+        <c:axId val="80916480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86831104"/>
+        <c:axId val="80914688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86833408"/>
+        <c:crossAx val="80916480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86833408"/>
+        <c:axId val="80916480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
-          <c:min val="0.65000000000000036"/>
+          <c:min val="0.65000000000000124"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86831104"/>
+        <c:crossAx val="80914688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1300,13 +1603,464 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IndependentTest!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IndependentTest!$B$2:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IndependentTest!$I$2:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.155363866566466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30193176496962798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29032258064516098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21516574145596801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.311900089295784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.236682315601564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28234195779599502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31445669017230499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36921640634860903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37669267387997801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44096219521128199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41945184422536502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37712977390388802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.451848057057532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44178059228741101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46333086508191901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44343115016190499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42091505277674202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37774427813297401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.419743265180547</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.419743265180547</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45480548591542003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.43314808182421</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.43581363364040898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.43213581570144299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44343115016190499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46626336818652098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.43314808182421</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50963670476201195</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.50832351360023298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49952807917753</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47534939727158698</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.50963670476201195</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55301004133750198</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49952807917753</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.489448587244041</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50963670476201195</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46626336818652098</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.412653630624916</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40016957453635399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43437224276306902</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40016957453635399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.45480548591542003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.422890031611031</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42418877561150198</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.48122650318578802</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.49119496025398202</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46936407313158302</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47939499700444999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.45760431532242901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.44343115016190499</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.47780946703937599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.43581363364040898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.43581363364040898</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.45935257122279699</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.43437224276306902</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.445942046155682</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.44457669989877602</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.44753318600918401</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48331225268012101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="80928128"/>
+        <c:axId val="92734592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80928128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92734592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92734592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80928128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1322,7 +2076,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>IndependentTest_SVM!$I$1</c:f>
+              <c:f>IndependentTest_Micro!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1336,52 +2090,175 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>IndependentTest_SVM!$B$2:$B$42</c:f>
+              <c:f>IndependentTest_Micro!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>350</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>IndependentTest_SVM!$I$2:$I$42</c:f>
+              <c:f>IndependentTest_Micro!$I$2:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.50963670476201195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50963670476201195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51977769818905195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49952807917753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53132337304975696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53132337304975696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51977769818905195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51977769818905195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52995430141300903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52995430141300903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55301004133750198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5329551283324</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53132337304975696</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54296530345383698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50963670476201195</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50963670476201195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50963670476201195</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49952807917753</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49952807917753</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49952807917753</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49952807917753</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="61894656"/>
-        <c:axId val="61896192"/>
+        <c:axId val="92784512"/>
+        <c:axId val="92786048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61894656"/>
+        <c:axId val="92784512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61896192"/>
+        <c:crossAx val="92786048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61896192"/>
+        <c:axId val="92786048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000062"/>
-          <c:min val="0.5"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61894656"/>
+        <c:crossAx val="92784512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1394,7 +2271,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1545,19 +2422,54 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2668,9 +3580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2711,6 +3623,30 @@
       <c r="B2">
         <v>10</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.77595400110913004</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.696618357487923</v>
+      </c>
+      <c r="G2">
+        <v>0.51745379876796704</v>
+      </c>
+      <c r="H2">
+        <v>0.85583941605839398</v>
+      </c>
+      <c r="I2">
+        <v>0.76132930513595198</v>
+      </c>
+      <c r="J2">
+        <v>0.39948872770789101</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -2719,6 +3655,30 @@
       <c r="B3">
         <v>20</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.83141796189990602</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.745893719806763</v>
+      </c>
+      <c r="G3">
+        <v>0.65297741273100596</v>
+      </c>
+      <c r="H3">
+        <v>0.82846715328467202</v>
+      </c>
+      <c r="I3">
+        <v>0.77184466019417497</v>
+      </c>
+      <c r="J3">
+        <v>0.490917391324172</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -2727,6 +3687,30 @@
       <c r="B4">
         <v>30</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.861439395074867</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.778743961352657</v>
+      </c>
+      <c r="G4">
+        <v>0.71663244353182798</v>
+      </c>
+      <c r="H4">
+        <v>0.83394160583941601</v>
+      </c>
+      <c r="I4">
+        <v>0.79318181818181799</v>
+      </c>
+      <c r="J4">
+        <v>0.55588592305557705</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -2735,6 +3719,30 @@
       <c r="B5">
         <v>40</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.87037800326743897</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.795169082125604</v>
+      </c>
+      <c r="G5">
+        <v>0.74948665297741301</v>
+      </c>
+      <c r="H5">
+        <v>0.83576642335766405</v>
+      </c>
+      <c r="I5">
+        <v>0.80219780219780201</v>
+      </c>
+      <c r="J5">
+        <v>0.58854377418294201</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -2743,6 +3751,30 @@
       <c r="B6">
         <v>50</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.89047347831951795</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.81835748792270502</v>
+      </c>
+      <c r="G6">
+        <v>0.73921971252566698</v>
+      </c>
+      <c r="H6">
+        <v>0.88868613138686103</v>
+      </c>
+      <c r="I6">
+        <v>0.85510688836104498</v>
+      </c>
+      <c r="J6">
+        <v>0.63800495466836504</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -2751,6 +3783,30 @@
       <c r="B7">
         <v>60</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.90344954210944095</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.80869565217391304</v>
+      </c>
+      <c r="G7">
+        <v>0.74127310061601603</v>
+      </c>
+      <c r="H7">
+        <v>0.86861313868613099</v>
+      </c>
+      <c r="I7">
+        <v>0.83371824480369505</v>
+      </c>
+      <c r="J7">
+        <v>0.61710831847811098</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -2759,6 +3815,30 @@
       <c r="B8">
         <v>70</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.916290711791243</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.82512077294686004</v>
+      </c>
+      <c r="G8">
+        <v>0.75359342915811101</v>
+      </c>
+      <c r="H8">
+        <v>0.88868613138686103</v>
+      </c>
+      <c r="I8">
+        <v>0.85747663551401898</v>
+      </c>
+      <c r="J8">
+        <v>0.65097248343414205</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -2767,6 +3847,30 @@
       <c r="B9">
         <v>80</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.92693235809888996</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.84347826086956501</v>
+      </c>
+      <c r="G9">
+        <v>0.77823408624229995</v>
+      </c>
+      <c r="H9">
+        <v>0.90145985401459805</v>
+      </c>
+      <c r="I9">
+        <v>0.87528868360277101</v>
+      </c>
+      <c r="J9">
+        <v>0.687742660060078</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -2775,6 +3879,30 @@
       <c r="B10">
         <v>90</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.89357604280639502</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.81545893719806795</v>
+      </c>
+      <c r="G10">
+        <v>0.73921971252566698</v>
+      </c>
+      <c r="H10">
+        <v>0.88321167883211704</v>
+      </c>
+      <c r="I10">
+        <v>0.84905660377358505</v>
+      </c>
+      <c r="J10">
+        <v>0.63174631003717996</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -2783,6 +3911,30 @@
       <c r="B11">
         <v>100</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.90166594223534402</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.81835748792270502</v>
+      </c>
+      <c r="G11">
+        <v>0.70020533880903502</v>
+      </c>
+      <c r="H11">
+        <v>0.92335766423357701</v>
+      </c>
+      <c r="I11">
+        <v>0.89033942558746704</v>
+      </c>
+      <c r="J11">
+        <v>0.644632080914192</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -2791,6 +3943,30 @@
       <c r="B12">
         <v>110</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.90416148323566103</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>0.819323671497585</v>
+      </c>
+      <c r="G12">
+        <v>0.70020533880903502</v>
+      </c>
+      <c r="H12">
+        <v>0.92518248175182505</v>
+      </c>
+      <c r="I12">
+        <v>0.89267015706806296</v>
+      </c>
+      <c r="J12">
+        <v>0.64686835650839902</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -2799,6 +3975,30 @@
       <c r="B13">
         <v>120</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.90962094755617195</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="G13">
+        <v>0.71252566735112899</v>
+      </c>
+      <c r="H13">
+        <v>0.92700729927007297</v>
+      </c>
+      <c r="I13">
+        <v>0.89664082687338498</v>
+      </c>
+      <c r="J13">
+        <v>0.65974287820252298</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -2807,6 +4007,30 @@
       <c r="B14">
         <v>130</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.91793941755722297</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.83961352657004795</v>
+      </c>
+      <c r="G14">
+        <v>0.73305954825462005</v>
+      </c>
+      <c r="H14">
+        <v>0.934306569343066</v>
+      </c>
+      <c r="I14">
+        <v>0.90839694656488501</v>
+      </c>
+      <c r="J14">
+        <v>0.68636499197475198</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
@@ -2815,6 +4039,30 @@
       <c r="B15">
         <v>140</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.926018075810492</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.85797101449275404</v>
+      </c>
+      <c r="G15">
+        <v>0.76796714579055403</v>
+      </c>
+      <c r="H15">
+        <v>0.93795620437956195</v>
+      </c>
+      <c r="I15">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="J15">
+        <v>0.72102189901094604</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -2823,365 +4071,1469 @@
       <c r="B16">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.93216699890586197</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.86763285024154602</v>
+      </c>
+      <c r="G16">
+        <v>0.77618069815195101</v>
+      </c>
+      <c r="H16">
+        <v>0.94890510948905105</v>
+      </c>
+      <c r="I16">
+        <v>0.931034482758621</v>
+      </c>
+      <c r="J16">
+        <v>0.74123484142231599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.93207332244188801</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.87149758454106296</v>
+      </c>
+      <c r="G17">
+        <v>0.77823408624229995</v>
+      </c>
+      <c r="H17">
+        <v>0.95437956204379604</v>
+      </c>
+      <c r="I17">
+        <v>0.93811881188118795</v>
+      </c>
+      <c r="J17">
+        <v>0.74959106777482098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.93288268709063804</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.87342995169082105</v>
+      </c>
+      <c r="G18">
+        <v>0.78644763860369604</v>
+      </c>
+      <c r="H18">
+        <v>0.95072992700729897</v>
+      </c>
+      <c r="I18">
+        <v>0.93414634146341502</v>
+      </c>
+      <c r="J18">
+        <v>0.75230670541126199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.94252386876302396</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>0.88212560386473404</v>
+      </c>
+      <c r="G19">
+        <v>0.81108829568788499</v>
+      </c>
+      <c r="H19">
+        <v>0.94525547445255498</v>
+      </c>
+      <c r="I19">
+        <v>0.92941176470588205</v>
+      </c>
+      <c r="J19">
+        <v>0.76738730684023504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.94811822719165895</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="G20">
+        <v>0.82751540041067795</v>
+      </c>
+      <c r="H20">
+        <v>0.94343065693430705</v>
+      </c>
+      <c r="I20">
+        <v>0.92857142857142905</v>
+      </c>
+      <c r="J20">
+        <v>0.77982409676280595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.94845546246197099</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0.89178743961352702</v>
+      </c>
+      <c r="G21">
+        <v>0.82546201232032901</v>
+      </c>
+      <c r="H21">
+        <v>0.95072992700729897</v>
+      </c>
+      <c r="I21">
+        <v>0.93706293706293697</v>
+      </c>
+      <c r="J21">
+        <v>0.78642793167559699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>210</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.95113086227311705</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.89565217391304397</v>
+      </c>
+      <c r="G22">
+        <v>0.83778234086242298</v>
+      </c>
+      <c r="H22">
+        <v>0.94708029197080301</v>
+      </c>
+      <c r="I22">
+        <v>0.93363844393592699</v>
+      </c>
+      <c r="J22">
+        <v>0.79315323929960602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>220</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.95655660306659296</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.910144927536232</v>
+      </c>
+      <c r="G23">
+        <v>0.83983572895277203</v>
+      </c>
+      <c r="H23">
+        <v>0.97262773722627704</v>
+      </c>
+      <c r="I23">
+        <v>0.964622641509434</v>
+      </c>
+      <c r="J23">
+        <v>0.82462228596628595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>230</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.95555988548989501</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>0.91207729468598997</v>
+      </c>
+      <c r="G24">
+        <v>0.85010266940451795</v>
+      </c>
+      <c r="H24">
+        <v>0.96715328467153305</v>
+      </c>
+      <c r="I24">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="J24">
+        <v>0.82720342449490403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>240</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.96272051439620498</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0.91690821256038602</v>
+      </c>
+      <c r="G25">
+        <v>0.85626283367556499</v>
+      </c>
+      <c r="H25">
+        <v>0.97080291970802901</v>
+      </c>
+      <c r="I25">
+        <v>0.963048498845266</v>
+      </c>
+      <c r="J25">
+        <v>0.83685960339978505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.96383713784679803</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.91980676328502398</v>
+      </c>
+      <c r="G26">
+        <v>0.852156057494867</v>
+      </c>
+      <c r="H26">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I26">
+        <v>0.97417840375586895</v>
+      </c>
+      <c r="J26">
+        <v>0.843933053841042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>260</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.96595797299120301</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>0.92077294685990296</v>
+      </c>
+      <c r="G27">
+        <v>0.85831622176591404</v>
+      </c>
+      <c r="H27">
+        <v>0.976277372262774</v>
+      </c>
+      <c r="I27">
+        <v>0.96983758700696099</v>
+      </c>
+      <c r="J27">
+        <v>0.84503111876947301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>270</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.96517483775236501</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.92173913043478295</v>
+      </c>
+      <c r="G28">
+        <v>0.85626283367556499</v>
+      </c>
+      <c r="H28">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I28">
+        <v>0.97429906542056099</v>
+      </c>
+      <c r="J28">
+        <v>0.84750723958881702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>280</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.96501371423432802</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.91980676328502398</v>
+      </c>
+      <c r="G29">
+        <v>0.85831622176591404</v>
+      </c>
+      <c r="H29">
+        <v>0.97445255474452597</v>
+      </c>
+      <c r="I29">
+        <v>0.967592592592593</v>
+      </c>
+      <c r="J29">
+        <v>0.84290506579504598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>290</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.96776405521665798</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0.917874396135266</v>
+      </c>
+      <c r="G30">
+        <v>0.85831622176591404</v>
+      </c>
+      <c r="H30">
+        <v>0.97080291970802901</v>
+      </c>
+      <c r="I30">
+        <v>0.963133640552995</v>
+      </c>
+      <c r="J30">
+        <v>0.838667088895097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.96791019050046201</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>0.91690821256038602</v>
+      </c>
+      <c r="G31">
+        <v>0.85626283367556499</v>
+      </c>
+      <c r="H31">
+        <v>0.97080291970802901</v>
+      </c>
+      <c r="I31">
+        <v>0.963048498845266</v>
+      </c>
+      <c r="J31">
+        <v>0.83685960339978505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>310</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.96980994918989205</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.92173913043478295</v>
+      </c>
+      <c r="G32">
+        <v>0.85626283367556499</v>
+      </c>
+      <c r="H32">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I32">
+        <v>0.97429906542056099</v>
+      </c>
+      <c r="J32">
+        <v>0.84750723958881702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>320</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.97189331374871002</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0.92367149758454103</v>
+      </c>
+      <c r="G33">
+        <v>0.86242299794661204</v>
+      </c>
+      <c r="H33">
+        <v>0.97810218978102204</v>
+      </c>
+      <c r="I33">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="J33">
+        <v>0.85075588644511801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>330</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.97466613708239302</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>0.92850241545893697</v>
+      </c>
+      <c r="G34">
+        <v>0.87268993839835696</v>
+      </c>
+      <c r="H34">
+        <v>0.97810218978102204</v>
+      </c>
+      <c r="I34">
+        <v>0.97254004576659003</v>
+      </c>
+      <c r="J34">
+        <v>0.85977915651320003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.97616496050600499</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.93236714975845403</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.87679671457905495</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.97711670480549195</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.86761749971479896</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>350</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.97589517228975398</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0.92367149758454103</v>
+      </c>
+      <c r="G36">
+        <v>0.85831622176591404</v>
+      </c>
+      <c r="H36">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I36">
+        <v>0.97663551401869197</v>
+      </c>
+      <c r="J36">
+        <v>0.85143793471191098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>360</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.97653591930334904</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>0.92946859903381596</v>
+      </c>
+      <c r="G37">
+        <v>0.86652977412731003</v>
+      </c>
+      <c r="H37">
+        <v>0.98540145985401495</v>
+      </c>
+      <c r="I37">
+        <v>0.98139534883720903</v>
+      </c>
+      <c r="J37">
+        <v>0.86287400503226597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>370</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.97825207212338505</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>0.93236714975845403</v>
+      </c>
+      <c r="G38">
+        <v>0.87679671457905495</v>
+      </c>
+      <c r="H38">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I38">
+        <v>0.97711670480549195</v>
+      </c>
+      <c r="J38">
+        <v>0.86761749971479896</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>380</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.97897900148383499</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>0.92946859903381596</v>
+      </c>
+      <c r="G39">
+        <v>0.86858316221765897</v>
+      </c>
+      <c r="H39">
+        <v>0.98357664233576603</v>
+      </c>
+      <c r="I39">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="J39">
+        <v>0.86253211742022495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>390</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.97829328976753305</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>0.93043478260869605</v>
+      </c>
+      <c r="G40">
+        <v>0.878850102669405</v>
+      </c>
+      <c r="H40">
+        <v>0.976277372262774</v>
+      </c>
+      <c r="I40">
+        <v>0.97052154195011298</v>
+      </c>
+      <c r="J40">
+        <v>0.86312382162661305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.97968344849293498</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>0.93526570048309199</v>
+      </c>
+      <c r="G41">
+        <v>0.88295687885010299</v>
+      </c>
+      <c r="H41">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I41">
+        <v>0.97727272727272696</v>
+      </c>
+      <c r="J41">
+        <v>0.87305131155637195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>410</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0.97902021912798798</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.93236714975845403</v>
+      </c>
+      <c r="G42">
+        <v>0.878850102669405</v>
+      </c>
+      <c r="H42">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I42">
+        <v>0.97494305239180001</v>
+      </c>
+      <c r="J42">
+        <v>0.86732093635224405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>420</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.980028177880365</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>0.934299516908213</v>
+      </c>
+      <c r="G43">
+        <v>0.88090349075975405</v>
+      </c>
+      <c r="H43">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I43">
+        <v>0.97722095671981801</v>
+      </c>
+      <c r="J43">
+        <v>0.87123772556421797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>430</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.97938743086677005</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>0.93526570048309199</v>
+      </c>
+      <c r="G44">
+        <v>0.88295687885010299</v>
+      </c>
+      <c r="H44">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I44">
+        <v>0.97727272727272696</v>
+      </c>
+      <c r="J44">
+        <v>0.87305131155637195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>440</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.97991951318215198</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45">
+        <v>0.93913043478260905</v>
+      </c>
+      <c r="G45">
+        <v>0.88706365503080098</v>
+      </c>
+      <c r="H45">
+        <v>0.98540145985401495</v>
+      </c>
+      <c r="I45">
+        <v>0.98181818181818203</v>
+      </c>
+      <c r="J45">
+        <v>0.88088255571688501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>450</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.97996073082630197</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>0.93913043478260905</v>
+      </c>
+      <c r="G46">
+        <v>0.88501026694045204</v>
+      </c>
+      <c r="H46">
+        <v>0.98722627737226298</v>
+      </c>
+      <c r="I46">
+        <v>0.98401826484018295</v>
+      </c>
+      <c r="J46">
+        <v>0.88118037742702204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>460</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.97953356615057297</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="G47">
+        <v>0.88090349075975405</v>
+      </c>
+      <c r="H47">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I47">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J47">
+        <v>0.86913568947611497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>470</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0.96919917864476701</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>0.90724637681159404</v>
+      </c>
+      <c r="G48">
+        <v>0.83367556468172499</v>
+      </c>
+      <c r="H48">
+        <v>0.97262773722627704</v>
+      </c>
+      <c r="I48">
+        <v>0.96437054631829</v>
+      </c>
+      <c r="J48">
+        <v>0.81927172134175996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>480</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.96995983153224996</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>0.91400966183574905</v>
+      </c>
+      <c r="G49">
+        <v>0.84188911704312097</v>
+      </c>
+      <c r="H49">
+        <v>0.97810218978102204</v>
+      </c>
+      <c r="I49">
+        <v>0.97156398104265396</v>
+      </c>
+      <c r="J49">
+        <v>0.832870625680877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>490</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.97176966081626404</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>0.91400966183574905</v>
+      </c>
+      <c r="G50">
+        <v>0.83983572895277203</v>
+      </c>
+      <c r="H50">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I50">
+        <v>0.97380952380952401</v>
+      </c>
+      <c r="J50">
+        <v>0.83326037456124102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>500</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.97340712540656005</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>0.91497584541062804</v>
+      </c>
+      <c r="G51">
+        <v>0.84188911704312097</v>
+      </c>
+      <c r="H51">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I51">
+        <v>0.97387173396674598</v>
+      </c>
+      <c r="J51">
+        <v>0.83503404887857702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>510</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0.97496964882567705</v>
+      </c>
+      <c r="E52">
+        <v>0.5</v>
+      </c>
+      <c r="F52">
+        <v>0.91884057971014499</v>
+      </c>
+      <c r="G52">
+        <v>0.84804928131416801</v>
+      </c>
+      <c r="H52">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I52">
+        <v>0.97635933806146602</v>
+      </c>
+      <c r="J52">
+        <v>0.84252515145828699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>520</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0.97274014898305305</v>
+      </c>
+      <c r="E53">
+        <v>0.5</v>
+      </c>
+      <c r="F53">
+        <v>0.91594202898550703</v>
+      </c>
+      <c r="G53">
+        <v>0.84188911704312097</v>
+      </c>
+      <c r="H53">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I53">
+        <v>0.97619047619047605</v>
+      </c>
+      <c r="J53">
+        <v>0.83720243598357402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>530</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0.97162727259102299</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>0.910144927536232</v>
+      </c>
+      <c r="G54">
+        <v>0.829568788501027</v>
+      </c>
+      <c r="H54">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I54">
+        <v>0.97584541062801899</v>
+      </c>
+      <c r="J54">
+        <v>0.82661122687481703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>540</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0.97225677842894098</v>
+      </c>
+      <c r="E55">
+        <v>0.5</v>
+      </c>
+      <c r="F55">
+        <v>0.91400966183574905</v>
+      </c>
+      <c r="G55">
+        <v>0.83983572895277203</v>
+      </c>
+      <c r="H55">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I55">
+        <v>0.97380952380952401</v>
+      </c>
+      <c r="J55">
+        <v>0.83326037456124102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>550</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0.97229799607309098</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>0.90917874396135301</v>
+      </c>
+      <c r="G56">
+        <v>0.83778234086242298</v>
+      </c>
+      <c r="H56">
+        <v>0.97262773722627704</v>
+      </c>
+      <c r="I56">
+        <v>0.96453900709219897</v>
+      </c>
+      <c r="J56">
+        <v>0.82283678430846496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>560</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.97025584915841401</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <v>0.91207729468598997</v>
+      </c>
+      <c r="G57">
+        <v>0.83572895277207404</v>
+      </c>
+      <c r="H57">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I57">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="J57">
+        <v>0.82971902990944302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>570</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.97016591975299604</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>0.91304347826086996</v>
+      </c>
+      <c r="G58">
+        <v>0.84188911704312097</v>
+      </c>
+      <c r="H58">
+        <v>0.976277372262774</v>
+      </c>
+      <c r="I58">
+        <v>0.96926713947990495</v>
+      </c>
+      <c r="J58">
+        <v>0.83071213116839404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>580</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0.959865255774214</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>0.87922705314009697</v>
+      </c>
+      <c r="G59">
+        <v>0.78644763860369604</v>
+      </c>
+      <c r="H59">
+        <v>0.96167883211678795</v>
+      </c>
+      <c r="I59">
+        <v>0.94801980198019797</v>
+      </c>
+      <c r="J59">
+        <v>0.76546338077362797</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>590</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0.96105682039599105</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="F60">
+        <v>0.88309178743961303</v>
+      </c>
+      <c r="G60">
+        <v>0.79466119096509202</v>
+      </c>
+      <c r="H60">
+        <v>0.96167883211678795</v>
+      </c>
+      <c r="I60">
+        <v>0.94852941176470595</v>
+      </c>
+      <c r="J60">
+        <v>0.77251690230824999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>600</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.95487792083214695</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61">
+        <v>0.85700483091787405</v>
+      </c>
+      <c r="G61">
+        <v>0.731006160164271</v>
+      </c>
+      <c r="H61">
+        <v>0.96897810218978098</v>
+      </c>
+      <c r="I61">
+        <v>0.954423592493298</v>
+      </c>
+      <c r="J61">
+        <v>0.72771214855164301</v>
       </c>
     </row>
   </sheetData>
@@ -3195,11 +5547,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3233,214 +5585,681 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2">
+        <v>330</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.97466613708239302</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.92850241545893697</v>
+      </c>
+      <c r="G2">
+        <v>0.87268993839835696</v>
+      </c>
+      <c r="H2">
+        <v>0.97810218978102204</v>
+      </c>
+      <c r="I2">
+        <v>0.97254004576659003</v>
+      </c>
+      <c r="J2">
+        <v>0.85977915651320003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>331</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.97462866649680302</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.92560386473430001</v>
+      </c>
+      <c r="G3">
+        <v>0.86652977412731003</v>
+      </c>
+      <c r="H3">
+        <v>0.97810218978102204</v>
+      </c>
+      <c r="I3">
+        <v>0.972350230414747</v>
+      </c>
+      <c r="J3">
+        <v>0.85435855346370804</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>332</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.97463241355536201</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.92270531400966205</v>
+      </c>
+      <c r="G4">
+        <v>0.86036960985626298</v>
+      </c>
+      <c r="H4">
+        <v>0.97810218978102204</v>
+      </c>
+      <c r="I4">
+        <v>0.97215777262181002</v>
+      </c>
+      <c r="J4">
+        <v>0.84895782566933198</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>333</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.97432890181208098</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.926570048309179</v>
+      </c>
+      <c r="G5">
+        <v>0.86652977412731003</v>
+      </c>
+      <c r="H5">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I5">
+        <v>0.97459584295612001</v>
+      </c>
+      <c r="J5">
+        <v>0.85648025383922</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>334</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.97465489590671694</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.926570048309179</v>
+      </c>
+      <c r="G6">
+        <v>0.86652977412731003</v>
+      </c>
+      <c r="H6">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I6">
+        <v>0.97459584295612001</v>
+      </c>
+      <c r="J6">
+        <v>0.85648025383922</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>335</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.97531812527166395</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.926570048309179</v>
+      </c>
+      <c r="G7">
+        <v>0.86652977412731003</v>
+      </c>
+      <c r="H7">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I7">
+        <v>0.97459584295612001</v>
+      </c>
+      <c r="J7">
+        <v>0.85648025383922</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>336</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.97534810174013598</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.92946859903381596</v>
+      </c>
+      <c r="G8">
+        <v>0.86858316221765897</v>
+      </c>
+      <c r="H8">
+        <v>0.98357664233576603</v>
+      </c>
+      <c r="I8">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="J8">
+        <v>0.86253211742022495</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>337</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.97538182526716699</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.92946859903381596</v>
+      </c>
+      <c r="G9">
+        <v>0.87268993839835696</v>
+      </c>
+      <c r="H9">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I9">
+        <v>0.97477064220183496</v>
+      </c>
+      <c r="J9">
+        <v>0.86189044079170496</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>338</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.97538557232572598</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.92946859903381596</v>
+      </c>
+      <c r="G10">
+        <v>0.87063655030800802</v>
+      </c>
+      <c r="H10">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I10">
+        <v>0.976958525345622</v>
+      </c>
+      <c r="J10">
+        <v>0.862204285748013</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>339</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.97580149582577902</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.92560386473430001</v>
+      </c>
+      <c r="G11">
+        <v>0.86447638603696098</v>
+      </c>
+      <c r="H11">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I11">
+        <v>0.97453703703703698</v>
+      </c>
+      <c r="J11">
+        <v>0.85468129677015303</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>340</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.97616496050600499</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.93236714975845403</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.87679671457905495</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.97711670480549195</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.86761749971479896</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>341</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.97606378992491105</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>0.93043478260869605</v>
+      </c>
+      <c r="G13">
+        <v>0.87474332648870601</v>
+      </c>
+      <c r="H13">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I13">
+        <v>0.97482837528604105</v>
+      </c>
+      <c r="J13">
+        <v>0.86369832811400005</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>342</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.97629610755557095</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.926570048309179</v>
+      </c>
+      <c r="G14">
+        <v>0.86036960985626298</v>
+      </c>
+      <c r="H14">
+        <v>0.98540145985401495</v>
+      </c>
+      <c r="I14">
+        <v>0.98126463700234201</v>
+      </c>
+      <c r="J14">
+        <v>0.85751526207949602</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>343</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.97528814880319203</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.92463768115942002</v>
+      </c>
+      <c r="G15">
+        <v>0.86242299794661204</v>
+      </c>
+      <c r="H15">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I15">
+        <v>0.97447795823665895</v>
+      </c>
+      <c r="J15">
+        <v>0.85288453256919206</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="B16">
+        <v>344</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.97543053702843696</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.926570048309179</v>
+      </c>
+      <c r="G16">
+        <v>0.86858316221765897</v>
+      </c>
+      <c r="H16">
+        <v>0.97810218978102204</v>
+      </c>
+      <c r="I16">
+        <v>0.972413793103448</v>
+      </c>
+      <c r="J16">
+        <v>0.85616319150555198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1">
+        <v>345</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.97568158995189203</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.93236714975845403</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.87268993839835696</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.98540145985401495</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.98152424942263305</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.86825264410288105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>346</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.97628861343845297</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.92560386473430001</v>
+      </c>
+      <c r="G18">
+        <v>0.86858316221765897</v>
+      </c>
+      <c r="H18">
+        <v>0.976277372262774</v>
+      </c>
+      <c r="I18">
+        <v>0.97018348623853201</v>
+      </c>
+      <c r="J18">
+        <v>0.85404966690527995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>347</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.97554669584376597</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>0.926570048309179</v>
+      </c>
+      <c r="G19">
+        <v>0.86652977412731003</v>
+      </c>
+      <c r="H19">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I19">
+        <v>0.97459584295612001</v>
+      </c>
+      <c r="J19">
+        <v>0.85648025383922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>348</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.97556917819512001</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>0.92753623188405798</v>
+      </c>
+      <c r="G20">
+        <v>0.86858316221765897</v>
+      </c>
+      <c r="H20">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I20">
+        <v>0.97465437788018405</v>
+      </c>
+      <c r="J20">
+        <v>0.85828141960586102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>349</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.97570781936180395</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0.92270531400966205</v>
+      </c>
+      <c r="G21">
+        <v>0.86242299794661204</v>
+      </c>
+      <c r="H21">
+        <v>0.976277372262774</v>
+      </c>
+      <c r="I21">
+        <v>0.96997690531177805</v>
+      </c>
+      <c r="J21">
+        <v>0.84863199366344599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>41</v>
+      <c r="B22">
+        <v>350</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.97589517228975398</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.92367149758454103</v>
+      </c>
+      <c r="G22">
+        <v>0.85831622176591404</v>
+      </c>
+      <c r="H22">
+        <v>0.98175182481751799</v>
+      </c>
+      <c r="I22">
+        <v>0.97663551401869197</v>
+      </c>
+      <c r="J22">
+        <v>0.85143793471191098</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K42">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:J22">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3450,15 +6269,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3485,6 +6304,70 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>340</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.99554849443187998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.97294685990338203</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.97125256673511295</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.97445255474452597</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.97125256673511295</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.94570512147963803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>343</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.99607682968870304</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0.97198067632850205</v>
+      </c>
+      <c r="G3">
+        <v>0.96303901437371697</v>
+      </c>
+      <c r="H3">
+        <v>0.97992700729926996</v>
+      </c>
+      <c r="I3">
+        <v>0.97708333333333297</v>
+      </c>
+      <c r="J3">
+        <v>0.94380808530777305</v>
       </c>
     </row>
   </sheetData>
@@ -3495,11 +6378,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3534,242 +6417,1745 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0.65498901607122195</v>
+      </c>
+      <c r="D2">
+        <v>0.57526881720430101</v>
+      </c>
+      <c r="E2">
+        <v>0.45161290322580599</v>
+      </c>
+      <c r="F2">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G2">
+        <v>0.6</v>
+      </c>
+      <c r="H2">
+        <v>0.51533742331288301</v>
+      </c>
+      <c r="I2">
+        <v>0.155363866566466</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0.70667129147878405</v>
+      </c>
+      <c r="D3">
+        <v>0.65053763440860202</v>
+      </c>
+      <c r="E3">
+        <v>0.61290322580645196</v>
+      </c>
+      <c r="F3">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G3">
+        <v>0.662790697674419</v>
+      </c>
+      <c r="H3">
+        <v>0.63687150837988804</v>
+      </c>
+      <c r="I3">
+        <v>0.30193176496962798</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0.681003584229391</v>
+      </c>
+      <c r="D4">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="E4">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="F4">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G4">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="H4">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="I4">
+        <v>0.29032258064516098</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>0.68990634755463098</v>
+      </c>
+      <c r="D5">
+        <v>0.60752688172043001</v>
+      </c>
+      <c r="E5">
+        <v>0.59139784946236595</v>
+      </c>
+      <c r="F5">
+        <v>0.62365591397849496</v>
+      </c>
+      <c r="G5">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H5">
+        <v>0.60109289617486295</v>
+      </c>
+      <c r="I5">
+        <v>0.21516574145596801</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>0.71002428026361397</v>
+      </c>
+      <c r="D6">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="E6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F6">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G6">
+        <v>0.65263157894736801</v>
+      </c>
+      <c r="H6">
+        <v>0.659574468085106</v>
+      </c>
+      <c r="I6">
+        <v>0.311900089295784</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>0.68724708058735096</v>
+      </c>
+      <c r="D7">
+        <v>0.61827956989247301</v>
+      </c>
+      <c r="E7">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="F7">
+        <v>0.60215053763440896</v>
+      </c>
+      <c r="G7">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="H7">
+        <v>0.62433862433862397</v>
+      </c>
+      <c r="I7">
+        <v>0.236682315601564</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>0.68389409180252003</v>
+      </c>
+      <c r="D8">
+        <v>0.63978494623655902</v>
+      </c>
+      <c r="E8">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="F8">
+        <v>0.56989247311827995</v>
+      </c>
+      <c r="G8">
+        <v>0.62264150943396201</v>
+      </c>
+      <c r="H8">
+        <v>0.66331658291457296</v>
+      </c>
+      <c r="I8">
+        <v>0.28234195779599502</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>0.713146028442595</v>
+      </c>
+      <c r="D9">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="E9">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F9">
+        <v>0.59139784946236595</v>
+      </c>
+      <c r="G9">
+        <v>0.63809523809523805</v>
+      </c>
+      <c r="H9">
+        <v>0.67676767676767702</v>
+      </c>
+      <c r="I9">
+        <v>0.31445669017230499</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>0.73210775812232598</v>
+      </c>
+      <c r="D10">
+        <v>0.68279569892473102</v>
+      </c>
+      <c r="E10">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F10">
+        <v>0.61290322580645196</v>
+      </c>
+      <c r="G10">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="H10">
+        <v>0.70351758793969799</v>
+      </c>
+      <c r="I10">
+        <v>0.36921640634860903</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>0.72852352873164505</v>
+      </c>
+      <c r="D11">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E11">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="F11">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G11">
+        <v>0.68041237113402098</v>
+      </c>
+      <c r="H11">
+        <v>0.69473684210526299</v>
+      </c>
+      <c r="I11">
+        <v>0.37669267387997801</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>0.72875476933749594</v>
+      </c>
+      <c r="D12">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E12">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F12">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="G12">
+        <v>0.71578947368421098</v>
+      </c>
+      <c r="H12">
+        <v>0.72340425531914898</v>
+      </c>
+      <c r="I12">
+        <v>0.44096219521128199</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>0.72702046479361804</v>
+      </c>
+      <c r="D13">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E13">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F13">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G13">
+        <v>0.70526315789473704</v>
+      </c>
+      <c r="H13">
+        <v>0.71276595744680804</v>
+      </c>
+      <c r="I13">
+        <v>0.41945184422536502</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>0.72806104751994505</v>
+      </c>
+      <c r="D14">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E14">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="F14">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G14">
+        <v>0.67676767676767702</v>
+      </c>
+      <c r="H14">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="I14">
+        <v>0.37712977390388802</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>0.744825991444097</v>
+      </c>
+      <c r="D15">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E15">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="F15">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="G15">
+        <v>0.71875</v>
+      </c>
+      <c r="H15">
+        <v>0.73015873015873001</v>
+      </c>
+      <c r="I15">
+        <v>0.451848057057532</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>0.73268585963695199</v>
+      </c>
+      <c r="D16">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E16">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F16">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G16">
+        <v>0.70707070707070696</v>
+      </c>
+      <c r="H16">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="I16">
+        <v>0.44178059228741101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>160</v>
+      </c>
+      <c r="C17">
+        <v>0.73869811538906205</v>
+      </c>
+      <c r="D17">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E17">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="F17">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G17">
+        <v>0.71717171717171702</v>
+      </c>
+      <c r="H17">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="I17">
+        <v>0.46333086508191901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>170</v>
+      </c>
+      <c r="C18">
+        <v>0.74054804023586596</v>
+      </c>
+      <c r="D18">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E18">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F18">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G18">
+        <v>0.69902912621359203</v>
+      </c>
+      <c r="H18">
+        <v>0.73469387755102</v>
+      </c>
+      <c r="I18">
+        <v>0.44343115016190499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>180</v>
+      </c>
+      <c r="C19">
+        <v>0.76725633021158501</v>
+      </c>
+      <c r="D19">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E19">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F19">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G19">
+        <v>0.69306930693069302</v>
+      </c>
+      <c r="H19">
+        <v>0.72164948453608202</v>
+      </c>
+      <c r="I19">
+        <v>0.42091505277674202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>190</v>
+      </c>
+      <c r="C20">
+        <v>0.755578679616141</v>
+      </c>
+      <c r="D20">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="E20">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F20">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G20">
+        <v>0.67326732673267298</v>
+      </c>
+      <c r="H20">
+        <v>0.70103092783505205</v>
+      </c>
+      <c r="I20">
+        <v>0.37774427813297401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>0.75257255174008497</v>
+      </c>
+      <c r="D21">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E21">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F21">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G21">
+        <v>0.70103092783505105</v>
+      </c>
+      <c r="H21">
+        <v>0.71578947368421098</v>
+      </c>
+      <c r="I21">
+        <v>0.419743265180547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>210</v>
+      </c>
+      <c r="C22">
+        <v>0.76089721355069895</v>
+      </c>
+      <c r="D22">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E22">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="F22">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G22">
+        <v>0.70103092783505105</v>
+      </c>
+      <c r="H22">
+        <v>0.71578947368421098</v>
+      </c>
+      <c r="I22">
+        <v>0.419743265180547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>220</v>
+      </c>
+      <c r="C23">
+        <v>0.76251589779165196</v>
+      </c>
+      <c r="D23">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E23">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F23">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G23">
+        <v>0.70192307692307698</v>
+      </c>
+      <c r="H23">
+        <v>0.74111675126903598</v>
+      </c>
+      <c r="I23">
+        <v>0.45480548591542003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>230</v>
+      </c>
+      <c r="C24">
+        <v>0.75962539021852205</v>
+      </c>
+      <c r="D24">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E24">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F24">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G24">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="H24">
+        <v>0.730964467005076</v>
+      </c>
+      <c r="I24">
+        <v>0.43314808182421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>240</v>
+      </c>
+      <c r="C25">
+        <v>0.76529078506185699</v>
+      </c>
+      <c r="D25">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E25">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F25">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G25">
+        <v>0.68518518518518501</v>
+      </c>
+      <c r="H25">
+        <v>0.73631840796019898</v>
+      </c>
+      <c r="I25">
+        <v>0.43581363364040898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>250</v>
+      </c>
+      <c r="C26">
+        <v>0.776737195051451</v>
+      </c>
+      <c r="D26">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E26">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="F26">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G26">
+        <v>0.69607843137254899</v>
+      </c>
+      <c r="H26">
+        <v>0.72820512820512795</v>
+      </c>
+      <c r="I26">
+        <v>0.43213581570144299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>260</v>
+      </c>
+      <c r="C27">
+        <v>0.78887732685859602</v>
+      </c>
+      <c r="D27">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E27">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F27">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G27">
+        <v>0.69902912621359203</v>
+      </c>
+      <c r="H27">
+        <v>0.73469387755102</v>
+      </c>
+      <c r="I27">
+        <v>0.44343115016190499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>270</v>
+      </c>
+      <c r="C28">
+        <v>0.77766215747485301</v>
+      </c>
+      <c r="D28">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E28">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F28">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G28">
+        <v>0.70476190476190503</v>
+      </c>
+      <c r="H28">
+        <v>0.74747474747474796</v>
+      </c>
+      <c r="I28">
+        <v>0.46626336818652098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>280</v>
+      </c>
+      <c r="C29">
+        <v>0.79685512776043499</v>
+      </c>
+      <c r="D29">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E29">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F29">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G29">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="H29">
+        <v>0.730964467005076</v>
+      </c>
+      <c r="I29">
+        <v>0.43314808182421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>290</v>
+      </c>
+      <c r="C30">
+        <v>0.80726095502370199</v>
+      </c>
+      <c r="D30">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E30">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F30">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G30">
+        <v>0.72380952380952401</v>
+      </c>
+      <c r="H30">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="I30">
+        <v>0.50963670476201195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>300</v>
+      </c>
+      <c r="C31">
+        <v>0.79199907503757605</v>
+      </c>
+      <c r="D31">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E31">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F31">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G31">
+        <v>0.72815533980582503</v>
+      </c>
+      <c r="H31">
+        <v>0.76530612244898</v>
+      </c>
+      <c r="I31">
+        <v>0.50832351360023298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>310</v>
+      </c>
+      <c r="C32">
+        <v>0.79026477049369803</v>
+      </c>
+      <c r="D32">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E32">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F32">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="G32">
+        <v>0.71698113207547198</v>
+      </c>
+      <c r="H32">
+        <v>0.76381909547738702</v>
+      </c>
+      <c r="I32">
+        <v>0.49952807917753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>320</v>
+      </c>
+      <c r="C33">
+        <v>0.79882067291016201</v>
+      </c>
+      <c r="D33">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="E33">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F33">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G33">
+        <v>0.71568627450980404</v>
+      </c>
+      <c r="H33">
+        <v>0.74871794871794894</v>
+      </c>
+      <c r="I33">
+        <v>0.47534939727158698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+      <c r="B34">
+        <v>330</v>
+      </c>
+      <c r="C34">
+        <v>0.80691409411492598</v>
+      </c>
+      <c r="D34">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E34">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F34">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G34">
+        <v>0.72380952380952401</v>
+      </c>
+      <c r="H34">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="I34">
+        <v>0.50963670476201195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="1">
+        <v>340</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.79858943230431201</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.74285714285714299</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.78787878787878796</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.55301004133750198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>350</v>
+      </c>
+      <c r="C36">
+        <v>0.79465834200485597</v>
+      </c>
+      <c r="D36">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E36">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F36">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="G36">
+        <v>0.71698113207547198</v>
+      </c>
+      <c r="H36">
+        <v>0.76381909547738702</v>
+      </c>
+      <c r="I36">
+        <v>0.49952807917753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>360</v>
+      </c>
+      <c r="C37">
+        <v>0.79512082321655697</v>
+      </c>
+      <c r="D37">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="E37">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F37">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G37">
+        <v>0.710280373831776</v>
+      </c>
+      <c r="H37">
+        <v>0.76</v>
+      </c>
+      <c r="I37">
+        <v>0.489448587244041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>370</v>
+      </c>
+      <c r="C38">
+        <v>0.798011330789686</v>
+      </c>
+      <c r="D38">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E38">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F38">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G38">
+        <v>0.72380952380952401</v>
+      </c>
+      <c r="H38">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="I38">
+        <v>0.50963670476201195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>380</v>
+      </c>
+      <c r="C39">
+        <v>0.79986125563648902</v>
+      </c>
+      <c r="D39">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E39">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F39">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G39">
+        <v>0.70476190476190503</v>
+      </c>
+      <c r="H39">
+        <v>0.74747474747474796</v>
+      </c>
+      <c r="I39">
+        <v>0.46626336818652098</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>390</v>
+      </c>
+      <c r="C40">
+        <v>0.80032373684819103</v>
+      </c>
+      <c r="D40">
+        <v>0.70430107526881702</v>
+      </c>
+      <c r="E40">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F40">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G40">
+        <v>0.679245283018868</v>
+      </c>
+      <c r="H40">
+        <v>0.723618090452261</v>
+      </c>
+      <c r="I40">
+        <v>0.412653630624916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>400</v>
+      </c>
+      <c r="C41">
+        <v>0.79963001503063902</v>
+      </c>
+      <c r="D41">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="E41">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F41">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G41">
+        <v>0.67961165048543704</v>
+      </c>
+      <c r="H41">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="I41">
+        <v>0.40016957453635399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42">
+        <v>410</v>
+      </c>
+      <c r="C42">
+        <v>0.80575789108567397</v>
+      </c>
+      <c r="D42">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E42">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F42">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G42">
+        <v>0.68867924528301905</v>
+      </c>
+      <c r="H42">
+        <v>0.733668341708543</v>
+      </c>
+      <c r="I42">
+        <v>0.43437224276306902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>420</v>
+      </c>
+      <c r="C43">
+        <v>0.81177014683778503</v>
+      </c>
+      <c r="D43">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="E43">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="F43">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G43">
+        <v>0.67961165048543704</v>
+      </c>
+      <c r="H43">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="I43">
+        <v>0.40016957453635399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>430</v>
+      </c>
+      <c r="C44">
+        <v>0.81442941380506395</v>
+      </c>
+      <c r="D44">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E44">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F44">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G44">
+        <v>0.70192307692307698</v>
+      </c>
+      <c r="H44">
+        <v>0.74111675126903598</v>
+      </c>
+      <c r="I44">
+        <v>0.45480548591542003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>440</v>
+      </c>
+      <c r="C45">
+        <v>0.81362007168458705</v>
+      </c>
+      <c r="D45">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E45">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F45">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G45">
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="H45">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="I45">
+        <v>0.422890031611031</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>450</v>
+      </c>
+      <c r="C46">
+        <v>0.81466065441091395</v>
+      </c>
+      <c r="D46">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="E46">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F46">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G46">
+        <v>0.68224299065420602</v>
+      </c>
+      <c r="H46">
+        <v>0.73</v>
+      </c>
+      <c r="I46">
+        <v>0.42418877561150198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>460</v>
+      </c>
+      <c r="C47">
+        <v>0.82286969591860304</v>
+      </c>
+      <c r="D47">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="E47">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F47">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G47">
+        <v>0.7</v>
+      </c>
+      <c r="H47">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="I47">
+        <v>0.48122650318578802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>470</v>
+      </c>
+      <c r="C48">
+        <v>0.808185917447103</v>
+      </c>
+      <c r="D48">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="E48">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F48">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G48">
+        <v>0.70642201834862395</v>
+      </c>
+      <c r="H48">
+        <v>0.76237623762376205</v>
+      </c>
+      <c r="I48">
+        <v>0.49119496025398202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>480</v>
+      </c>
+      <c r="C49">
+        <v>0.80702971441785099</v>
+      </c>
+      <c r="D49">
+        <v>0.73118279569892497</v>
+      </c>
+      <c r="E49">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F49">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G49">
+        <v>0.69724770642201805</v>
+      </c>
+      <c r="H49">
+        <v>0.75247524752475203</v>
+      </c>
+      <c r="I49">
+        <v>0.46936407313158302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>490</v>
+      </c>
+      <c r="C50">
+        <v>0.81408255289628895</v>
+      </c>
+      <c r="D50">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="E50">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F50">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G50">
+        <v>0.70370370370370405</v>
+      </c>
+      <c r="H50">
+        <v>0.75621890547263704</v>
+      </c>
+      <c r="I50">
+        <v>0.47939499700444999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>500</v>
+      </c>
+      <c r="C51">
+        <v>0.81119204532315903</v>
+      </c>
+      <c r="D51">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E51">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F51">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G51">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="H51">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="I51">
+        <v>0.45760431532242901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>510</v>
+      </c>
+      <c r="C52">
+        <v>0.80379234593594595</v>
+      </c>
+      <c r="D52">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E52">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="F52">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G52">
+        <v>0.69902912621359203</v>
+      </c>
+      <c r="H52">
+        <v>0.73469387755102</v>
+      </c>
+      <c r="I52">
+        <v>0.44343115016190499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>520</v>
+      </c>
+      <c r="C53">
+        <v>0.797548849577986</v>
+      </c>
+      <c r="D53">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="E53">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F53">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="G53">
+        <v>0.70754716981132104</v>
+      </c>
+      <c r="H53">
+        <v>0.75376884422110602</v>
+      </c>
+      <c r="I53">
+        <v>0.47780946703937599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>530</v>
+      </c>
+      <c r="C54">
+        <v>0.79442710139900496</v>
+      </c>
+      <c r="D54">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E54">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F54">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G54">
+        <v>0.68518518518518501</v>
+      </c>
+      <c r="H54">
+        <v>0.73631840796019898</v>
+      </c>
+      <c r="I54">
+        <v>0.43581363364040898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>540</v>
+      </c>
+      <c r="C55">
+        <v>0.79269279685512795</v>
+      </c>
+      <c r="D55">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E55">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F55">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G55">
+        <v>0.68518518518518501</v>
+      </c>
+      <c r="H55">
+        <v>0.73631840796019898</v>
+      </c>
+      <c r="I55">
+        <v>0.43581363364040898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>550</v>
+      </c>
+      <c r="C56">
+        <v>0.80055497745404103</v>
+      </c>
+      <c r="D56">
+        <v>0.72580645161290303</v>
+      </c>
+      <c r="E56">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F56">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G56">
+        <v>0.69090909090909103</v>
+      </c>
+      <c r="H56">
+        <v>0.74876847290640403</v>
+      </c>
+      <c r="I56">
+        <v>0.45935257122279699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>560</v>
+      </c>
+      <c r="C57">
+        <v>0.80402358654179595</v>
+      </c>
+      <c r="D57">
+        <v>0.71505376344086002</v>
+      </c>
+      <c r="E57">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F57">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G57">
+        <v>0.68867924528301905</v>
+      </c>
+      <c r="H57">
+        <v>0.733668341708543</v>
+      </c>
+      <c r="I57">
+        <v>0.43437224276306902</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>570</v>
+      </c>
+      <c r="C58">
+        <v>0.79650826685165999</v>
+      </c>
+      <c r="D58">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E58">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="F58">
+        <v>0.64516129032258096</v>
+      </c>
+      <c r="G58">
+        <v>0.69158878504672905</v>
+      </c>
+      <c r="H58">
+        <v>0.74</v>
+      </c>
+      <c r="I58">
+        <v>0.445942046155682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>580</v>
+      </c>
+      <c r="C59">
+        <v>0.79500520291363197</v>
+      </c>
+      <c r="D59">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E59">
+        <v>0.78494623655913998</v>
+      </c>
+      <c r="F59">
+        <v>0.65591397849462396</v>
+      </c>
+      <c r="G59">
+        <v>0.69523809523809499</v>
+      </c>
+      <c r="H59">
+        <v>0.73737373737373701</v>
+      </c>
+      <c r="I59">
+        <v>0.44457669989877602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>590</v>
+      </c>
+      <c r="C60">
+        <v>0.797895710486762</v>
+      </c>
+      <c r="D60">
+        <v>0.72043010752688197</v>
+      </c>
+      <c r="E60">
+        <v>0.80645161290322598</v>
+      </c>
+      <c r="F60">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G60">
+        <v>0.68807339449541305</v>
+      </c>
+      <c r="H60">
+        <v>0.74257425742574301</v>
+      </c>
+      <c r="I60">
+        <v>0.44753318600918401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>600</v>
+      </c>
+      <c r="C61">
+        <v>0.80876401896173</v>
+      </c>
+      <c r="D61">
+        <v>0.73655913978494603</v>
+      </c>
+      <c r="E61">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="F61">
+        <v>0.63440860215053796</v>
+      </c>
+      <c r="G61">
+        <v>0.69642857142857095</v>
+      </c>
+      <c r="H61">
+        <v>0.76097560975609801</v>
+      </c>
+      <c r="I61">
+        <v>0.48331225268012101</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I42">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:I61">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3778,6 +8164,661 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>330</v>
+      </c>
+      <c r="C2">
+        <v>0.80691409411492598</v>
+      </c>
+      <c r="D2">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E2">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F2">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G2">
+        <v>0.72380952380952401</v>
+      </c>
+      <c r="H2">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="I2">
+        <v>0.50963670476201195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>331</v>
+      </c>
+      <c r="C3">
+        <v>0.80702971441785198</v>
+      </c>
+      <c r="D3">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E3">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F3">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G3">
+        <v>0.72380952380952401</v>
+      </c>
+      <c r="H3">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="I3">
+        <v>0.50963670476201195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>332</v>
+      </c>
+      <c r="C4">
+        <v>0.80564227078274897</v>
+      </c>
+      <c r="D4">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="E4">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F4">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G4">
+        <v>0.73076923076923095</v>
+      </c>
+      <c r="H4">
+        <v>0.77157360406091402</v>
+      </c>
+      <c r="I4">
+        <v>0.51977769818905195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>333</v>
+      </c>
+      <c r="C5">
+        <v>0.80506416926812296</v>
+      </c>
+      <c r="D5">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E5">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F5">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="G5">
+        <v>0.71698113207547198</v>
+      </c>
+      <c r="H5">
+        <v>0.76381909547738702</v>
+      </c>
+      <c r="I5">
+        <v>0.49952807917753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>334</v>
+      </c>
+      <c r="C6">
+        <v>0.80136431957451704</v>
+      </c>
+      <c r="D6">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="E6">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F6">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G6">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="H6">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="I6">
+        <v>0.53132337304975696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>335</v>
+      </c>
+      <c r="C7">
+        <v>0.79905191351601301</v>
+      </c>
+      <c r="D7">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="E7">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F7">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G7">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="H7">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="I7">
+        <v>0.53132337304975696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>336</v>
+      </c>
+      <c r="C8">
+        <v>0.79905191351601301</v>
+      </c>
+      <c r="D8">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="E8">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F8">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G8">
+        <v>0.73076923076923095</v>
+      </c>
+      <c r="H8">
+        <v>0.77157360406091402</v>
+      </c>
+      <c r="I8">
+        <v>0.51977769818905195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>337</v>
+      </c>
+      <c r="C9">
+        <v>0.79986125563648902</v>
+      </c>
+      <c r="D9">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="E9">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F9">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G9">
+        <v>0.73076923076923095</v>
+      </c>
+      <c r="H9">
+        <v>0.77157360406091402</v>
+      </c>
+      <c r="I9">
+        <v>0.51977769818905195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>338</v>
+      </c>
+      <c r="C10">
+        <v>0.79858943230431201</v>
+      </c>
+      <c r="D10">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="E10">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F10">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="G10">
+        <v>0.73786407766990303</v>
+      </c>
+      <c r="H10">
+        <v>0.77551020408163296</v>
+      </c>
+      <c r="I10">
+        <v>0.52995430141300903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>339</v>
+      </c>
+      <c r="C11">
+        <v>0.79662388715458399</v>
+      </c>
+      <c r="D11">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="E11">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F11">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="G11">
+        <v>0.73786407766990303</v>
+      </c>
+      <c r="H11">
+        <v>0.77551020408163296</v>
+      </c>
+      <c r="I11">
+        <v>0.52995430141300903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>340</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.79858943230431201</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.77419354838709697</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.74285714285714299</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.78787878787878796</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.55301004133750198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>341</v>
+      </c>
+      <c r="C13">
+        <v>0.79870505260723701</v>
+      </c>
+      <c r="D13">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="E13">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="F13">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G13">
+        <v>0.72897196261682196</v>
+      </c>
+      <c r="H13">
+        <v>0.78</v>
+      </c>
+      <c r="I13">
+        <v>0.5329551283324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>342</v>
+      </c>
+      <c r="C14">
+        <v>0.79569892473118298</v>
+      </c>
+      <c r="D14">
+        <v>0.76344086021505397</v>
+      </c>
+      <c r="E14">
+        <v>0.82795698924731198</v>
+      </c>
+      <c r="F14">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G14">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="H14">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="I14">
+        <v>0.53132337304975696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>343</v>
+      </c>
+      <c r="C15">
+        <v>0.798011330789687</v>
+      </c>
+      <c r="D15">
+        <v>0.76881720430107503</v>
+      </c>
+      <c r="E15">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="F15">
+        <v>0.69892473118279597</v>
+      </c>
+      <c r="G15">
+        <v>0.73584905660377398</v>
+      </c>
+      <c r="H15">
+        <v>0.78391959798995003</v>
+      </c>
+      <c r="I15">
+        <v>0.54296530345383698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>344</v>
+      </c>
+      <c r="C16">
+        <v>0.79627702624580898</v>
+      </c>
+      <c r="D16">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E16">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F16">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G16">
+        <v>0.72380952380952401</v>
+      </c>
+      <c r="H16">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="I16">
+        <v>0.50963670476201195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>345</v>
+      </c>
+      <c r="C17">
+        <v>0.79523644351948197</v>
+      </c>
+      <c r="D17">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E17">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F17">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G17">
+        <v>0.72380952380952401</v>
+      </c>
+      <c r="H17">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="I17">
+        <v>0.50963670476201195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>346</v>
+      </c>
+      <c r="C18">
+        <v>0.79315527806682895</v>
+      </c>
+      <c r="D18">
+        <v>0.75268817204301097</v>
+      </c>
+      <c r="E18">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F18">
+        <v>0.68817204301075297</v>
+      </c>
+      <c r="G18">
+        <v>0.72380952380952401</v>
+      </c>
+      <c r="H18">
+        <v>0.76767676767676796</v>
+      </c>
+      <c r="I18">
+        <v>0.50963670476201195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>347</v>
+      </c>
+      <c r="C19">
+        <v>0.79500520291363097</v>
+      </c>
+      <c r="D19">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E19">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F19">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="G19">
+        <v>0.71698113207547198</v>
+      </c>
+      <c r="H19">
+        <v>0.76381909547738702</v>
+      </c>
+      <c r="I19">
+        <v>0.49952807917753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>348</v>
+      </c>
+      <c r="C20">
+        <v>0.79604578563995798</v>
+      </c>
+      <c r="D20">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E20">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F20">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="G20">
+        <v>0.71698113207547198</v>
+      </c>
+      <c r="H20">
+        <v>0.76381909547738702</v>
+      </c>
+      <c r="I20">
+        <v>0.49952807917753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>349</v>
+      </c>
+      <c r="C21">
+        <v>0.79546768412533198</v>
+      </c>
+      <c r="D21">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E21">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F21">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="G21">
+        <v>0.71698113207547198</v>
+      </c>
+      <c r="H21">
+        <v>0.76381909547738702</v>
+      </c>
+      <c r="I21">
+        <v>0.49952807917753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>350</v>
+      </c>
+      <c r="C22">
+        <v>0.79465834200485597</v>
+      </c>
+      <c r="D22">
+        <v>0.74731182795698903</v>
+      </c>
+      <c r="E22">
+        <v>0.81720430107526898</v>
+      </c>
+      <c r="F22">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="G22">
+        <v>0.71698113207547198</v>
+      </c>
+      <c r="H22">
+        <v>0.76381909547738702</v>
+      </c>
+      <c r="I22">
+        <v>0.49952807917753</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I22">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
